--- a/src/main/java/com/railyatri/qa/testdata/TestData.xlsx
+++ b/src/main/java/com/railyatri/qa/testdata/TestData.xlsx
@@ -113,8 +113,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,78 +419,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>42</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>37</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
     </row>

--- a/src/main/java/com/railyatri/qa/testdata/TestData.xlsx
+++ b/src/main/java/com/railyatri/qa/testdata/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Source</t>
   </si>
@@ -56,12 +56,6 @@
     <t>Hyderabad</t>
   </si>
   <si>
-    <t>Egmore - 21:35</t>
-  </si>
-  <si>
-    <t>L.b. nagar - 33:0</t>
-  </si>
-  <si>
     <t>Vijay Kumar</t>
   </si>
   <si>
@@ -78,6 +72,24 @@
   </si>
   <si>
     <t>Chennai</t>
+  </si>
+  <si>
+    <t>Travels</t>
+  </si>
+  <si>
+    <t>KOMITLA</t>
+  </si>
+  <si>
+    <t>I1,I2</t>
+  </si>
+  <si>
+    <t>Seats</t>
+  </si>
+  <si>
+    <t>T nagar (pick up van - 18:20</t>
+  </si>
+  <si>
+    <t>Lb nagar - 6:10</t>
   </si>
 </sst>
 </file>
@@ -396,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,18 +419,20 @@
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,36 +443,42 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -467,31 +487,37 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1">
+        <v>42</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1">
-        <v>42</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="1">
+        <v>37</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="J2" s="1">
-        <v>37</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
